--- a/02_Models/OuterLoop_Control/test_cases/HLR_6_Baseline_Data.xlsx
+++ b/02_Models/OuterLoop_Control/test_cases/HLR_6_Baseline_Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\CI_19b_PSS\DODemo\DO_03_Design\OuterLoop_Control\test_cases\HLR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vanshg\MATLAB\Projects\examples\ProcessAdvisorExample3\02_Models\OuterLoop_Control\test_cases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C303FBF6-F5C6-43DD-83E9-9B4875F6C4F5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{357C595C-29EB-43FF-AC7E-931B4E675F7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1650" yWindow="270" windowWidth="22515" windowHeight="15165" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="StepUp" sheetId="2" r:id="rId1"/>
@@ -400,14 +400,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D1006"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="V26" sqref="V26"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="5.28515625" customWidth="1"/>
-    <col min="2" max="2" width="51.140625" customWidth="1"/>
-    <col min="3" max="3" width="50.140625" customWidth="1"/>
-    <col min="4" max="4" width="54.28515625" customWidth="1"/>
+    <col min="1" max="1" width="5.26953125" customWidth="1"/>
+    <col min="2" max="2" width="51.1796875" customWidth="1"/>
+    <col min="3" max="3" width="50.1796875" customWidth="1"/>
+    <col min="4" max="4" width="54.26953125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -458,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -472,7 +474,7 @@
         <v>0.01</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -486,7 +488,7 @@
         <v>0.02</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -500,7 +502,7 @@
         <v>0.03</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -514,7 +516,7 @@
         <v>0.04</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -528,7 +530,7 @@
         <v>0.05</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -542,7 +544,7 @@
         <v>6.0000000000000005E-2</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -556,7 +558,7 @@
         <v>6.9999999999999993E-2</v>
       </c>
       <c r="B13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -570,7 +572,7 @@
         <v>0.08</v>
       </c>
       <c r="B14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -584,7 +586,7 @@
         <v>0.09</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -598,7 +600,7 @@
         <v>9.9999999999999992E-2</v>
       </c>
       <c r="B16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -14478,12 +14480,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="5.28515625" customWidth="1"/>
-    <col min="2" max="2" width="51.140625" customWidth="1"/>
-    <col min="3" max="3" width="50.140625" customWidth="1"/>
-    <col min="4" max="4" width="54.28515625" customWidth="1"/>
+    <col min="1" max="1" width="5.26953125" customWidth="1"/>
+    <col min="2" max="2" width="51.1796875" customWidth="1"/>
+    <col min="3" max="3" width="50.1796875" customWidth="1"/>
+    <col min="4" max="4" width="54.26953125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
